--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1914.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1914.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE82B20F-5DD5-43BB-8989-49D081EA1F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F679CFFC-C40E-4B18-9D53-F8C077035F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="161">
   <si>
     <t>губ</t>
   </si>
@@ -511,6 +511,15 @@
   </si>
   <si>
     <t>чс-уез-о YY</t>
+  </si>
+  <si>
+    <t>v-чж</t>
+  </si>
+  <si>
+    <t>v-чр</t>
+  </si>
+  <si>
+    <t>v-чс</t>
   </si>
 </sst>
 </file>
@@ -569,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -583,6 +592,11 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3451,11 +3465,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87300F8A-07EE-47F6-856C-F9D2237F36F8}">
-  <dimension ref="A1:AC96"/>
+  <dimension ref="A1:AG96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O60" sqref="O60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3481,9 +3497,10 @@
     <col min="26" max="27" width="11.578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.15625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.41796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.83984375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3568,8 +3585,17 @@
       <c r="AC1" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3660,8 +3686,20 @@
         <f>Z2+AA2-AB2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE2" s="11">
+        <f>B2-H2-T2</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="11">
+        <f>C2-L2-X2</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="11">
+        <f>D2-P2-AB2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3752,8 +3790,20 @@
         <f t="shared" ref="AC3:AC66" si="5">Z3+AA3-AB3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE3" s="11">
+        <f t="shared" ref="AE3:AE66" si="6">B3-H3-T3</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="11">
+        <f t="shared" ref="AF3:AF66" si="7">C3-L3-X3</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="11">
+        <f t="shared" ref="AG3:AG66" si="8">D3-P3-AB3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3844,8 +3894,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE4" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -3936,8 +3998,20 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE5" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG5" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -4028,8 +4102,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE6" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -4120,8 +4206,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE7" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4212,8 +4310,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE8" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4304,8 +4414,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE9" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4396,8 +4518,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE10" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -4488,8 +4622,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE11" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -4580,8 +4726,20 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE12" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG12" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -4672,8 +4830,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE13" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -4764,8 +4934,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE14" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -4856,8 +5038,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE15" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -4948,8 +5142,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE16" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -5040,8 +5246,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE17" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -5132,8 +5350,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE18" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -5224,8 +5454,20 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE19" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG19" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -5316,8 +5558,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE20" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -5408,8 +5662,20 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE21" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG21" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -5500,8 +5766,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE22" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>78</v>
       </c>
@@ -5592,8 +5870,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE23" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -5684,8 +5974,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE24" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -5776,13 +6078,25 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE25" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="3">
-        <v>1816316</v>
+      <c r="B26" s="12">
+        <v>1866316</v>
       </c>
       <c r="C26" s="3">
         <v>81920</v>
@@ -5868,8 +6182,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE26" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -5960,8 +6286,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE27" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -6052,8 +6390,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE28" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -6144,8 +6494,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE29" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -6236,8 +6598,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE30" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -6328,8 +6702,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE31" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -6420,8 +6806,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE32" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -6512,8 +6910,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE33" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -6604,8 +7014,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE34" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -6696,8 +7118,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE35" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -6788,8 +7222,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE36" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG36" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -6880,8 +7326,20 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE37" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG37" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -6972,8 +7430,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE38" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -7064,8 +7534,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE39" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -7156,8 +7638,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE40" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -7248,8 +7742,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE41" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF41" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -7340,8 +7846,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE42" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -7432,8 +7950,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE43" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -7524,8 +8054,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE44" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -7616,8 +8158,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE45" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG45" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -7708,8 +8262,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE46" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -7800,8 +8366,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE47" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -7892,8 +8470,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE48" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG48" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -7984,8 +8574,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE49" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG49" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -8076,8 +8678,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE50" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -8168,8 +8782,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE51" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -8260,8 +8886,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE52" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -8352,8 +8990,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE53" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -8444,8 +9094,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE54" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -8536,8 +9198,20 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE55" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG55" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -8628,8 +9302,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE56" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -8720,8 +9406,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE57" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -8731,8 +9429,8 @@
       <c r="C58" s="4">
         <v>53579</v>
       </c>
-      <c r="D58" s="4">
-        <v>31687</v>
+      <c r="D58" s="13">
+        <v>34687</v>
       </c>
       <c r="F58" s="5">
         <v>97782</v>
@@ -8812,8 +9510,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE58" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -8823,8 +9533,8 @@
       <c r="C59" s="4">
         <v>4935179</v>
       </c>
-      <c r="D59" s="4">
-        <v>3008885</v>
+      <c r="D59" s="13">
+        <v>3008835</v>
       </c>
       <c r="F59" s="5">
         <v>9070486</v>
@@ -8904,8 +9614,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE59" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -8996,8 +9718,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE60" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -9088,8 +9822,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE61" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -9180,8 +9926,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE62" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -9272,8 +10030,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE63" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -9364,8 +10134,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE64" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF64" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -9456,8 +10238,20 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE65" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF65" s="11" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG65" s="11" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -9548,8 +10342,20 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE66" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -9572,7 +10378,7 @@
         <v>124418</v>
       </c>
       <c r="I67" s="8">
-        <f t="shared" ref="I67:I96" si="6">F67+G67-H67</f>
+        <f t="shared" ref="I67:I96" si="9">F67+G67-H67</f>
         <v>0</v>
       </c>
       <c r="J67" s="5">
@@ -9585,7 +10391,7 @@
         <v>1926</v>
       </c>
       <c r="M67" s="8">
-        <f t="shared" ref="M67:M96" si="7">J67+K67-L67</f>
+        <f t="shared" ref="M67:M96" si="10">J67+K67-L67</f>
         <v>0</v>
       </c>
       <c r="N67" s="5">
@@ -9598,7 +10404,7 @@
         <v>1510</v>
       </c>
       <c r="Q67" s="8">
-        <f t="shared" ref="Q67:Q96" si="8">N67+O67-P67</f>
+        <f t="shared" ref="Q67:Q96" si="11">N67+O67-P67</f>
         <v>0</v>
       </c>
       <c r="R67" s="5">
@@ -9611,7 +10417,7 @@
         <v>1109042</v>
       </c>
       <c r="U67" s="8">
-        <f t="shared" ref="U67:U96" si="9">R67+S67-T67</f>
+        <f t="shared" ref="U67:U96" si="12">R67+S67-T67</f>
         <v>0</v>
       </c>
       <c r="V67" s="5">
@@ -9624,7 +10430,7 @@
         <v>26696</v>
       </c>
       <c r="Y67" s="8">
-        <f t="shared" ref="Y67:Y96" si="10">V67+W67-X67</f>
+        <f t="shared" ref="Y67:Y96" si="13">V67+W67-X67</f>
         <v>0</v>
       </c>
       <c r="Z67" s="5">
@@ -9637,11 +10443,23 @@
         <v>14192</v>
       </c>
       <c r="AC67" s="8">
-        <f t="shared" ref="AC67:AC96" si="11">Z67+AA67-AB67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="AC67:AC96" si="14">Z67+AA67-AB67</f>
+        <v>0</v>
+      </c>
+      <c r="AE67" s="11">
+        <f t="shared" ref="AE67:AE96" si="15">B67-H67-T67</f>
+        <v>0</v>
+      </c>
+      <c r="AF67" s="11">
+        <f t="shared" ref="AF67:AF96" si="16">C67-L67-X67</f>
+        <v>0</v>
+      </c>
+      <c r="AG67" s="11">
+        <f t="shared" ref="AG67:AG96" si="17">D67-P67-AB67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -9664,7 +10482,7 @@
         <v>62850</v>
       </c>
       <c r="I68" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J68" s="5">
@@ -9677,7 +10495,7 @@
         <v>2570</v>
       </c>
       <c r="M68" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N68" s="5">
@@ -9690,7 +10508,7 @@
         <v>1762</v>
       </c>
       <c r="Q68" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R68" s="5">
@@ -9703,7 +10521,7 @@
         <v>1230802</v>
       </c>
       <c r="U68" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V68" s="5">
@@ -9716,7 +10534,7 @@
         <v>70219</v>
       </c>
       <c r="Y68" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z68" s="5">
@@ -9729,11 +10547,23 @@
         <v>47576</v>
       </c>
       <c r="AC68" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE68" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF68" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -9756,7 +10586,7 @@
         <v>223656</v>
       </c>
       <c r="I69" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J69" s="5">
@@ -9769,7 +10599,7 @@
         <v>8043</v>
       </c>
       <c r="M69" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N69" s="5">
@@ -9782,7 +10612,7 @@
         <v>5608</v>
       </c>
       <c r="Q69" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R69" s="5">
@@ -9795,7 +10625,7 @@
         <v>1097672</v>
       </c>
       <c r="U69" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V69" s="5">
@@ -9808,7 +10638,7 @@
         <v>49025</v>
       </c>
       <c r="Y69" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z69" s="5">
@@ -9821,11 +10651,23 @@
         <v>27660</v>
       </c>
       <c r="AC69" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE69" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF69" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -9848,7 +10690,7 @@
         <v>419053</v>
       </c>
       <c r="I70" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J70" s="5">
@@ -9861,7 +10703,7 @@
         <v>6981</v>
       </c>
       <c r="M70" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N70" s="5">
@@ -9874,7 +10716,7 @@
         <v>5628</v>
       </c>
       <c r="Q70" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R70" s="5">
@@ -9887,7 +10729,7 @@
         <v>1041749</v>
       </c>
       <c r="U70" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V70" s="5">
@@ -9900,7 +10742,7 @@
         <v>41482</v>
       </c>
       <c r="Y70" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z70" s="5">
@@ -9913,11 +10755,23 @@
         <v>21323</v>
       </c>
       <c r="AC70" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE70" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF70" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -9940,7 +10794,7 @@
         <v>99899</v>
       </c>
       <c r="I71" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J71" s="5">
@@ -9953,7 +10807,7 @@
         <v>2200</v>
       </c>
       <c r="M71" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N71" s="5">
@@ -9966,7 +10820,7 @@
         <v>1329</v>
       </c>
       <c r="Q71" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R71" s="5">
@@ -9979,7 +10833,7 @@
         <v>94571</v>
       </c>
       <c r="U71" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V71" s="5">
@@ -9992,7 +10846,7 @@
         <v>3328</v>
       </c>
       <c r="Y71" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z71" s="5">
@@ -10005,11 +10859,23 @@
         <v>1329</v>
       </c>
       <c r="AC71" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG71" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -10032,7 +10898,7 @@
         <v>92912</v>
       </c>
       <c r="I72" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J72" s="5">
@@ -10045,7 +10911,7 @@
         <v>2457</v>
       </c>
       <c r="M72" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N72" s="5">
@@ -10058,7 +10924,7 @@
         <v>2066</v>
       </c>
       <c r="Q72" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R72" s="5">
@@ -10071,7 +10937,7 @@
         <v>842894</v>
       </c>
       <c r="U72" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V72" s="5">
@@ -10084,7 +10950,7 @@
         <v>33774</v>
       </c>
       <c r="Y72" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z72" s="5">
@@ -10097,11 +10963,23 @@
         <v>17487</v>
       </c>
       <c r="AC72" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE72" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -10124,7 +11002,7 @@
         <v>2077893</v>
       </c>
       <c r="I73" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J73" s="5">
@@ -10137,7 +11015,7 @@
         <v>50503</v>
       </c>
       <c r="M73" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N73" s="5">
@@ -10150,7 +11028,7 @@
         <v>38152</v>
       </c>
       <c r="Q73" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R73" s="5">
@@ -10163,7 +11041,7 @@
         <v>11137454</v>
       </c>
       <c r="U73" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V73" s="5">
@@ -10176,7 +11054,7 @@
         <v>430255</v>
       </c>
       <c r="Y73" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z73" s="5">
@@ -10189,11 +11067,23 @@
         <v>248265</v>
       </c>
       <c r="AC73" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE73" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF73" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG73" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -10216,7 +11106,7 @@
         <v>63014</v>
       </c>
       <c r="I74" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J74" s="5">
@@ -10229,7 +11119,7 @@
         <v>4297</v>
       </c>
       <c r="M74" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N74" s="5">
@@ -10242,7 +11132,7 @@
         <v>2264</v>
       </c>
       <c r="Q74" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R74" s="5">
@@ -10255,7 +11145,7 @@
         <v>257188</v>
       </c>
       <c r="U74" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V74" s="5">
@@ -10268,7 +11158,7 @@
         <v>12260</v>
       </c>
       <c r="Y74" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z74" s="5">
@@ -10281,11 +11171,23 @@
         <v>5461</v>
       </c>
       <c r="AC74" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE74" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF74" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG74" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -10308,7 +11210,7 @@
         <v>153422</v>
       </c>
       <c r="I75" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J75" s="5">
@@ -10321,7 +11223,7 @@
         <v>5050</v>
       </c>
       <c r="M75" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N75" s="5">
@@ -10334,7 +11236,7 @@
         <v>3715</v>
       </c>
       <c r="Q75" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R75" s="5">
@@ -10347,7 +11249,7 @@
         <v>980786</v>
       </c>
       <c r="U75" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V75" s="5">
@@ -10360,7 +11262,7 @@
         <v>55691</v>
       </c>
       <c r="Y75" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z75" s="5">
@@ -10373,11 +11275,23 @@
         <v>31981</v>
       </c>
       <c r="AC75" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE75" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF75" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG75" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -10400,7 +11314,7 @@
         <v>143367</v>
       </c>
       <c r="I76" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J76" s="5">
@@ -10413,7 +11327,7 @@
         <v>5249</v>
       </c>
       <c r="M76" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N76" s="5">
@@ -10426,7 +11340,7 @@
         <v>3467</v>
       </c>
       <c r="Q76" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R76" s="5">
@@ -10439,7 +11353,7 @@
         <v>810103</v>
       </c>
       <c r="U76" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V76" s="5">
@@ -10452,7 +11366,7 @@
         <v>36752</v>
       </c>
       <c r="Y76" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z76" s="5">
@@ -10465,11 +11379,23 @@
         <v>21324</v>
       </c>
       <c r="AC76" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF76" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG76" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -10492,7 +11418,7 @@
         <v>142794</v>
       </c>
       <c r="I77" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J77" s="5">
@@ -10505,7 +11431,7 @@
         <v>6228</v>
       </c>
       <c r="M77" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N77" s="5">
@@ -10518,7 +11444,7 @@
         <v>3807</v>
       </c>
       <c r="Q77" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R77" s="5">
@@ -10531,7 +11457,7 @@
         <v>601567</v>
       </c>
       <c r="U77" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V77" s="5">
@@ -10544,7 +11470,7 @@
         <v>29103</v>
       </c>
       <c r="Y77" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z77" s="5">
@@ -10557,11 +11483,23 @@
         <v>17519</v>
       </c>
       <c r="AC77" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE77" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF77" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG77" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -10584,7 +11522,7 @@
         <v>2742</v>
       </c>
       <c r="I78" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J78" s="5">
@@ -10597,7 +11535,7 @@
         <v>85</v>
       </c>
       <c r="M78" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N78" s="5">
@@ -10610,7 +11548,7 @@
         <v>54</v>
       </c>
       <c r="Q78" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R78" s="5">
@@ -10623,7 +11561,7 @@
         <v>29788</v>
       </c>
       <c r="U78" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V78" s="5">
@@ -10636,7 +11574,7 @@
         <v>671</v>
       </c>
       <c r="Y78" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z78" s="5">
@@ -10649,11 +11587,23 @@
         <v>551</v>
       </c>
       <c r="AC78" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE78" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF78" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG78" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -10676,7 +11626,7 @@
         <v>152223</v>
       </c>
       <c r="I79" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J79" s="5">
@@ -10689,7 +11639,7 @@
         <v>5240</v>
       </c>
       <c r="M79" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N79" s="5">
@@ -10702,7 +11652,7 @@
         <v>2762</v>
       </c>
       <c r="Q79" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R79" s="5">
@@ -10715,7 +11665,7 @@
         <v>371910</v>
       </c>
       <c r="U79" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V79" s="5">
@@ -10728,7 +11678,7 @@
         <v>14705</v>
       </c>
       <c r="Y79" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z79" s="5">
@@ -10741,11 +11691,23 @@
         <v>5936</v>
       </c>
       <c r="AC79" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG79" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -10768,7 +11730,7 @@
         <v>14414</v>
       </c>
       <c r="I80" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J80" s="5">
@@ -10781,7 +11743,7 @@
         <v>504</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N80" s="5">
@@ -10794,7 +11756,7 @@
         <v>300</v>
       </c>
       <c r="Q80" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R80" s="5">
@@ -10807,7 +11769,7 @@
         <v>19387</v>
       </c>
       <c r="U80" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V80" s="5">
@@ -10820,7 +11782,7 @@
         <v>726</v>
       </c>
       <c r="Y80" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z80" s="5">
@@ -10833,11 +11795,23 @@
         <v>399</v>
       </c>
       <c r="AC80" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE80" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -10860,7 +11834,7 @@
         <v>150065</v>
       </c>
       <c r="I81" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J81" s="5">
@@ -10873,7 +11847,7 @@
         <v>5761</v>
       </c>
       <c r="M81" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N81" s="5">
@@ -10886,7 +11860,7 @@
         <v>4879</v>
       </c>
       <c r="Q81" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R81" s="5">
@@ -10899,7 +11873,7 @@
         <v>1975627</v>
       </c>
       <c r="U81" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V81" s="5">
@@ -10912,7 +11886,7 @@
         <v>111618</v>
       </c>
       <c r="Y81" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z81" s="5">
@@ -10925,11 +11899,23 @@
         <v>75295</v>
       </c>
       <c r="AC81" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE81" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF81" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG81" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -10952,7 +11938,7 @@
         <v>234546</v>
       </c>
       <c r="I82" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J82" s="5">
@@ -10965,7 +11951,7 @@
         <v>9649</v>
       </c>
       <c r="M82" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N82" s="5">
@@ -10978,7 +11964,7 @@
         <v>6005</v>
       </c>
       <c r="Q82" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R82" s="5">
@@ -10991,7 +11977,7 @@
         <v>3980617</v>
       </c>
       <c r="U82" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V82" s="5">
@@ -11004,7 +11990,7 @@
         <v>216939</v>
       </c>
       <c r="Y82" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z82" s="5">
@@ -11017,11 +12003,23 @@
         <v>125942</v>
       </c>
       <c r="AC82" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF82" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG82" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -11044,7 +12042,7 @@
         <v>11410</v>
       </c>
       <c r="I83" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J83" s="5" t="s">
@@ -11057,7 +12055,7 @@
         <v>84</v>
       </c>
       <c r="M83" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N83" s="5" t="s">
@@ -11070,7 +12068,7 @@
         <v>84</v>
       </c>
       <c r="Q83" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R83" s="5">
@@ -11083,7 +12081,7 @@
         <v>258703</v>
       </c>
       <c r="U83" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V83" s="5">
@@ -11096,7 +12094,7 @@
         <v>10095</v>
       </c>
       <c r="Y83" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z83" s="5">
@@ -11109,11 +12107,23 @@
         <v>7047</v>
       </c>
       <c r="AC83" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE83" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF83" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG83" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -11136,7 +12146,7 @@
         <v>1067997</v>
       </c>
       <c r="I84" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J84" s="5">
@@ -11149,7 +12159,7 @@
         <v>42063</v>
       </c>
       <c r="M84" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N84" s="5">
@@ -11162,7 +12172,7 @@
         <v>27253</v>
       </c>
       <c r="Q84" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R84" s="5">
@@ -11175,7 +12185,7 @@
         <v>9285676</v>
       </c>
       <c r="U84" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V84" s="6">
@@ -11188,7 +12198,7 @@
         <v>488560</v>
       </c>
       <c r="Y84" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z84" s="5">
@@ -11201,11 +12211,23 @@
         <v>291455</v>
       </c>
       <c r="AC84" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE84" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF84" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG84" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -11228,7 +12250,7 @@
         <v>217501</v>
       </c>
       <c r="I85" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J85" s="5">
@@ -11241,7 +12263,7 @@
         <v>6172</v>
       </c>
       <c r="M85" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N85" s="5">
@@ -11254,7 +12276,7 @@
         <v>4558</v>
       </c>
       <c r="Q85" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R85" s="5">
@@ -11267,7 +12289,7 @@
         <v>1338178</v>
       </c>
       <c r="U85" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V85" s="5">
@@ -11280,7 +12302,7 @@
         <v>60568</v>
       </c>
       <c r="Y85" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z85" s="5">
@@ -11293,11 +12315,23 @@
         <v>32046</v>
       </c>
       <c r="AC85" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG85" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -11320,7 +12354,7 @@
         <v>73314</v>
       </c>
       <c r="I86" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J86" s="5">
@@ -11333,7 +12367,7 @@
         <v>2732</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N86" s="5">
@@ -11346,7 +12380,7 @@
         <v>2713</v>
       </c>
       <c r="Q86" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R86" s="5">
@@ -11359,7 +12393,7 @@
         <v>433822</v>
       </c>
       <c r="U86" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V86" s="5">
@@ -11372,7 +12406,7 @@
         <v>12935</v>
       </c>
       <c r="Y86" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z86" s="5">
@@ -11385,11 +12419,23 @@
         <v>10400</v>
       </c>
       <c r="AC86" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE86" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF86" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG86" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -11412,7 +12458,7 @@
         <v>208500</v>
       </c>
       <c r="I87" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J87" s="5" t="s">
@@ -11425,7 +12471,7 @@
         <v>84</v>
       </c>
       <c r="M87" s="8" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="N87" s="5" t="s">
@@ -11438,7 +12484,7 @@
         <v>84</v>
       </c>
       <c r="Q87" s="8" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
       <c r="R87" s="6">
@@ -11451,7 +12497,7 @@
         <v>989500</v>
       </c>
       <c r="U87" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V87" s="5" t="s">
@@ -11464,259 +12510,295 @@
         <v>84</v>
       </c>
       <c r="Y87" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB87" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC87" s="8" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE87" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF87" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG87" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="4">
+        <v>928509</v>
+      </c>
+      <c r="C88" s="4">
+        <v>25601</v>
+      </c>
+      <c r="D88" s="4">
+        <v>15983</v>
+      </c>
+      <c r="F88" s="5">
+        <v>48064</v>
+      </c>
+      <c r="G88" s="5">
+        <v>42166</v>
+      </c>
+      <c r="H88" s="5">
+        <v>90230</v>
+      </c>
+      <c r="I88" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="5">
+        <v>1911</v>
+      </c>
+      <c r="K88" s="5">
+        <v>1719</v>
+      </c>
+      <c r="L88" s="5">
+        <v>3630</v>
+      </c>
+      <c r="M88" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="5">
+        <v>1290</v>
+      </c>
+      <c r="O88" s="5">
+        <v>1096</v>
+      </c>
+      <c r="P88" s="5">
+        <v>2386</v>
+      </c>
+      <c r="Q88" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="5">
+        <v>457107</v>
+      </c>
+      <c r="S88" s="5">
+        <v>381172</v>
+      </c>
+      <c r="T88" s="5">
+        <v>838279</v>
+      </c>
+      <c r="U88" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V88" s="5">
+        <v>11524</v>
+      </c>
+      <c r="W88" s="5">
+        <v>10447</v>
+      </c>
+      <c r="X88" s="5">
+        <v>21971</v>
+      </c>
+      <c r="Y88" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z88" s="5">
+        <v>7301</v>
+      </c>
+      <c r="AA88" s="5">
+        <v>6296</v>
+      </c>
+      <c r="AB88" s="5">
+        <v>13597</v>
+      </c>
+      <c r="AC88" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE88" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF88" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG88" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="4">
+        <v>1331165</v>
+      </c>
+      <c r="C89" s="4">
+        <v>56233</v>
+      </c>
+      <c r="D89" s="4">
+        <v>34688</v>
+      </c>
+      <c r="F89" s="5">
+        <v>55448</v>
+      </c>
+      <c r="G89" s="5">
+        <v>47156</v>
+      </c>
+      <c r="H89" s="5">
+        <v>102604</v>
+      </c>
+      <c r="I89" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="5">
+        <v>3402</v>
+      </c>
+      <c r="K89" s="5">
+        <v>3205</v>
+      </c>
+      <c r="L89" s="5">
+        <v>6607</v>
+      </c>
+      <c r="M89" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="5">
+        <v>2267</v>
+      </c>
+      <c r="O89" s="5">
+        <v>2258</v>
+      </c>
+      <c r="P89" s="5">
+        <v>4525</v>
+      </c>
+      <c r="Q89" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R89" s="5">
+        <v>679477</v>
+      </c>
+      <c r="S89" s="5">
+        <v>549084</v>
+      </c>
+      <c r="T89" s="5">
+        <v>1228561</v>
+      </c>
+      <c r="U89" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V89" s="5">
+        <v>26794</v>
+      </c>
+      <c r="W89" s="5">
+        <v>22832</v>
+      </c>
+      <c r="X89" s="5">
+        <v>49626</v>
+      </c>
+      <c r="Y89" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z89" s="5">
+        <v>16080</v>
+      </c>
+      <c r="AA89" s="5">
+        <v>14083</v>
+      </c>
+      <c r="AB89" s="5">
+        <v>30163</v>
+      </c>
+      <c r="AC89" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE89" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF89" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG89" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="4">
+        <v>2012300</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F90" s="5">
+        <v>200600</v>
+      </c>
+      <c r="G90" s="5">
+        <v>162700</v>
+      </c>
+      <c r="H90" s="5">
+        <v>363300</v>
+      </c>
+      <c r="I90" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M90" s="8" t="e">
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z87" s="5" t="s">
+      <c r="N90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AA87" s="5" t="s">
+      <c r="O90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AB87" s="5" t="s">
+      <c r="P90" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AC87" s="8" t="e">
+      <c r="Q90" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" t="s">
-        <v>130</v>
-      </c>
-      <c r="B88" s="4">
-        <v>928509</v>
-      </c>
-      <c r="C88" s="4">
-        <v>25601</v>
-      </c>
-      <c r="D88" s="4">
-        <v>15983</v>
-      </c>
-      <c r="F88" s="5">
-        <v>48064</v>
-      </c>
-      <c r="G88" s="5">
-        <v>42166</v>
-      </c>
-      <c r="H88" s="5">
-        <v>90230</v>
-      </c>
-      <c r="I88" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="5">
-        <v>1911</v>
-      </c>
-      <c r="K88" s="5">
-        <v>1719</v>
-      </c>
-      <c r="L88" s="5">
-        <v>3630</v>
-      </c>
-      <c r="M88" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N88" s="5">
-        <v>1290</v>
-      </c>
-      <c r="O88" s="5">
-        <v>1096</v>
-      </c>
-      <c r="P88" s="5">
-        <v>2386</v>
-      </c>
-      <c r="Q88" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R88" s="5">
-        <v>457107</v>
-      </c>
-      <c r="S88" s="5">
-        <v>381172</v>
-      </c>
-      <c r="T88" s="5">
-        <v>838279</v>
-      </c>
-      <c r="U88" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V88" s="5">
-        <v>11524</v>
-      </c>
-      <c r="W88" s="5">
-        <v>10447</v>
-      </c>
-      <c r="X88" s="5">
-        <v>21971</v>
-      </c>
-      <c r="Y88" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z88" s="5">
-        <v>7301</v>
-      </c>
-      <c r="AA88" s="5">
-        <v>6296</v>
-      </c>
-      <c r="AB88" s="5">
-        <v>13597</v>
-      </c>
-      <c r="AC88" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" t="s">
-        <v>131</v>
-      </c>
-      <c r="B89" s="4">
-        <v>1331165</v>
-      </c>
-      <c r="C89" s="4">
-        <v>56233</v>
-      </c>
-      <c r="D89" s="4">
-        <v>34688</v>
-      </c>
-      <c r="F89" s="5">
-        <v>55448</v>
-      </c>
-      <c r="G89" s="5">
-        <v>47156</v>
-      </c>
-      <c r="H89" s="5">
-        <v>102604</v>
-      </c>
-      <c r="I89" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="5">
-        <v>3402</v>
-      </c>
-      <c r="K89" s="5">
-        <v>3205</v>
-      </c>
-      <c r="L89" s="5">
-        <v>6607</v>
-      </c>
-      <c r="M89" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N89" s="5">
-        <v>2267</v>
-      </c>
-      <c r="O89" s="5">
-        <v>2258</v>
-      </c>
-      <c r="P89" s="5">
-        <v>4525</v>
-      </c>
-      <c r="Q89" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R89" s="5">
-        <v>679477</v>
-      </c>
-      <c r="S89" s="5">
-        <v>549084</v>
-      </c>
-      <c r="T89" s="5">
-        <v>1228561</v>
-      </c>
-      <c r="U89" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="5">
-        <v>26794</v>
-      </c>
-      <c r="W89" s="5">
-        <v>22832</v>
-      </c>
-      <c r="X89" s="5">
-        <v>49626</v>
-      </c>
-      <c r="Y89" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="5">
-        <v>16080</v>
-      </c>
-      <c r="AA89" s="5">
-        <v>14083</v>
-      </c>
-      <c r="AB89" s="5">
-        <v>30163</v>
-      </c>
-      <c r="AC89" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" t="s">
-        <v>137</v>
-      </c>
-      <c r="B90" s="4">
-        <v>2012300</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F90" s="5">
-        <v>200600</v>
-      </c>
-      <c r="G90" s="5">
-        <v>162700</v>
-      </c>
-      <c r="H90" s="5">
-        <v>363300</v>
-      </c>
-      <c r="I90" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="K90" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L90" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M90" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N90" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O90" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P90" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q90" s="8" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
       <c r="R90" s="5">
         <v>884500</v>
       </c>
@@ -11727,7 +12809,7 @@
         <v>1649000</v>
       </c>
       <c r="U90" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V90" s="5" t="s">
@@ -11740,7 +12822,7 @@
         <v>84</v>
       </c>
       <c r="Y90" s="8" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z90" s="5" t="s">
@@ -11753,11 +12835,23 @@
         <v>84</v>
       </c>
       <c r="AC90" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="AE90" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF90" s="11" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG90" s="11" t="e">
+        <f t="shared" si="17"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>132</v>
       </c>
@@ -11780,7 +12874,7 @@
         <v>40042</v>
       </c>
       <c r="I91" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J91" s="5">
@@ -11793,7 +12887,7 @@
         <v>1732</v>
       </c>
       <c r="M91" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N91" s="5">
@@ -11806,7 +12900,7 @@
         <v>1060</v>
       </c>
       <c r="Q91" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R91" s="5">
@@ -11819,7 +12913,7 @@
         <v>802364</v>
       </c>
       <c r="U91" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V91" s="5">
@@ -11832,7 +12926,7 @@
         <v>38145</v>
       </c>
       <c r="Y91" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z91" s="5">
@@ -11845,11 +12939,23 @@
         <v>23857</v>
       </c>
       <c r="AC91" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE91" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF91" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG91" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>133</v>
       </c>
@@ -11872,7 +12978,7 @@
         <v>64997</v>
       </c>
       <c r="I92" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J92" s="5">
@@ -11885,7 +12991,7 @@
         <v>2253</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N92" s="5">
@@ -11898,7 +13004,7 @@
         <v>1158</v>
       </c>
       <c r="Q92" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R92" s="5">
@@ -11911,7 +13017,7 @@
         <v>770931</v>
       </c>
       <c r="U92" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V92" s="5">
@@ -11924,7 +13030,7 @@
         <v>18448</v>
       </c>
       <c r="Y92" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z92" s="5">
@@ -11937,11 +13043,23 @@
         <v>13795</v>
       </c>
       <c r="AC92" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE92" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF92" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG92" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>134</v>
       </c>
@@ -11964,7 +13082,7 @@
         <v>411987</v>
       </c>
       <c r="I93" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J93" s="5">
@@ -11977,7 +13095,7 @@
         <v>15896</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N93" s="5">
@@ -11990,7 +13108,7 @@
         <v>9798</v>
       </c>
       <c r="Q93" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R93" s="5">
@@ -12003,7 +13121,7 @@
         <v>1711949</v>
       </c>
       <c r="U93" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V93" s="5">
@@ -12016,7 +13134,7 @@
         <v>49807</v>
       </c>
       <c r="Y93" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z93" s="5">
@@ -12029,11 +13147,23 @@
         <v>24705</v>
       </c>
       <c r="AC93" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF93" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>138</v>
       </c>
@@ -12056,7 +13186,7 @@
         <v>1572475</v>
       </c>
       <c r="I94" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J94" s="5">
@@ -12069,7 +13199,7 @@
         <v>39022</v>
       </c>
       <c r="M94" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N94" s="5">
@@ -12082,7 +13212,7 @@
         <v>26198</v>
       </c>
       <c r="Q94" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R94" s="5">
@@ -12095,7 +13225,7 @@
         <v>9762584</v>
       </c>
       <c r="U94" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V94" s="5">
@@ -12108,7 +13238,7 @@
         <v>251500</v>
       </c>
       <c r="Y94" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z94" s="5">
@@ -12121,11 +13251,23 @@
         <v>148563</v>
       </c>
       <c r="AC94" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE94" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF94" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG94" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>136</v>
       </c>
@@ -12148,7 +13290,7 @@
         <v>4718365</v>
       </c>
       <c r="I95" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J95" s="5">
@@ -12161,7 +13303,7 @@
         <v>131588</v>
       </c>
       <c r="M95" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N95" s="5">
@@ -12174,7 +13316,7 @@
         <v>91603</v>
       </c>
       <c r="Q95" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R95" s="5">
@@ -12187,7 +13329,7 @@
         <v>30185714</v>
       </c>
       <c r="U95" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V95" s="5">
@@ -12200,7 +13342,7 @@
         <v>1170315</v>
       </c>
       <c r="Y95" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z95" s="5">
@@ -12213,11 +13355,23 @@
         <v>688283</v>
       </c>
       <c r="AC95" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE95" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF95" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG95" s="11">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>135</v>
       </c>
@@ -12240,7 +13394,7 @@
         <v>22457299</v>
       </c>
       <c r="I96" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J96" s="5">
@@ -12253,7 +13407,7 @@
         <v>655093</v>
       </c>
       <c r="M96" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N96" s="5">
@@ -12266,7 +13420,7 @@
         <v>481776</v>
       </c>
       <c r="Q96" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R96" s="5">
@@ -12279,7 +13433,7 @@
         <v>140053863</v>
       </c>
       <c r="U96" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V96" s="5">
@@ -12292,7 +13446,7 @@
         <v>5581989</v>
       </c>
       <c r="Y96" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z96" s="5">
@@ -12305,7 +13459,19 @@
         <v>3306945</v>
       </c>
       <c r="AC96" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AE96" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF96" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG96" s="11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>

--- a/rtss-pre1917/src/main/resources/ugvi/year-volumes/1914.xlsx
+++ b/rtss-pre1917/src/main/resources/ugvi/year-volumes/1914.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\ugvi\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F679CFFC-C40E-4B18-9D53-F8C077035F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105BA61C-C3D2-4A9D-8E3F-7C493EA15A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="57840" windowHeight="23520" activeTab="1" xr2:uid="{6FADB225-1DCC-41C5-A57E-E993B7611BBF}"/>
   </bookViews>
@@ -3465,13 +3465,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87300F8A-07EE-47F6-856C-F9D2237F36F8}">
-  <dimension ref="A1:AG96"/>
+  <dimension ref="A1:AJ96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomRight" activeCell="AN33" sqref="AN33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8483,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -9522,8 +9522,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+      <c r="AI58" s="4">
+        <f>SUM(F2:F58)</f>
+        <v>9070486</v>
+      </c>
+      <c r="AJ58" s="4">
+        <f>SUM(G2:G58)</f>
+        <v>8668448</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -9627,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -9731,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -9835,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -9939,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -10043,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>106</v>
       </c>
